--- a/Ligas/Primera_B_2025.xlsx
+++ b/Ligas/Primera_B_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DFFFA8-EFCC-4280-B9AA-2B9DDA0DF57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD4424-55CA-4238-9429-E1AC97E81EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,13 +645,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="Q116" sqref="Q116"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="3" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Ligas/Primera_B_2025.xlsx
+++ b/Ligas/Primera_B_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD4424-55CA-4238-9429-E1AC97E81EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A22BE3-3C68-4741-A276-A8DB3EB64957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="89">
   <si>
     <t>Fecha</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>2025-07-12</t>
+  </si>
+  <si>
+    <t>2025-07-13</t>
   </si>
 </sst>
 </file>
@@ -643,13 +649,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S121"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="O129" sqref="O129"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="3" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7792,6 +7799,478 @@
         <v>38</v>
       </c>
     </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>1348357</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>3</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122">
+        <v>4</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>54</v>
+      </c>
+      <c r="R122">
+        <v>46</v>
+      </c>
+      <c r="S122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1348354</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123">
+        <v>5</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>2</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>48</v>
+      </c>
+      <c r="R123">
+        <v>52</v>
+      </c>
+      <c r="S123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>87</v>
+      </c>
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>1348358</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>5</v>
+      </c>
+      <c r="I124">
+        <v>4</v>
+      </c>
+      <c r="J124">
+        <v>3</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>50</v>
+      </c>
+      <c r="R124">
+        <v>50</v>
+      </c>
+      <c r="S124" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>87</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>1348359</v>
+      </c>
+      <c r="G125">
+        <v>10</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>4</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>47</v>
+      </c>
+      <c r="R125">
+        <v>53</v>
+      </c>
+      <c r="S125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>88</v>
+      </c>
+      <c r="B126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>1348353</v>
+      </c>
+      <c r="G126">
+        <v>12</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>4</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>1</v>
+      </c>
+      <c r="Q126">
+        <v>53</v>
+      </c>
+      <c r="R126">
+        <v>47</v>
+      </c>
+      <c r="S126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>88</v>
+      </c>
+      <c r="B127" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1348356</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>5</v>
+      </c>
+      <c r="I127">
+        <v>4</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>43</v>
+      </c>
+      <c r="R127">
+        <v>57</v>
+      </c>
+      <c r="S127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>88</v>
+      </c>
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>1348355</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <v>6</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>3</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>46</v>
+      </c>
+      <c r="R128">
+        <v>54</v>
+      </c>
+      <c r="S128" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>88</v>
+      </c>
+      <c r="B129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1348360</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>8</v>
+      </c>
+      <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>53</v>
+      </c>
+      <c r="R129">
+        <v>47</v>
+      </c>
+      <c r="S129" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Primera_B_2025.xlsx
+++ b/Ligas/Primera_B_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A22BE3-3C68-4741-A276-A8DB3EB64957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D121336-A426-4982-9AD5-75D86BC35A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="93">
   <si>
     <t>Fecha</t>
   </si>
@@ -287,6 +287,18 @@
   </si>
   <si>
     <t>2025-07-13</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
   </si>
 </sst>
 </file>
@@ -305,6 +317,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -649,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="O129" sqref="O129"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8271,6 +8284,478 @@
         <v>28</v>
       </c>
     </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>89</v>
+      </c>
+      <c r="B130" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>1348361</v>
+      </c>
+      <c r="G130">
+        <v>5</v>
+      </c>
+      <c r="H130">
+        <v>4</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <v>6</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>50</v>
+      </c>
+      <c r="R130">
+        <v>50</v>
+      </c>
+      <c r="S130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>89</v>
+      </c>
+      <c r="B131" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1348366</v>
+      </c>
+      <c r="G131">
+        <v>9</v>
+      </c>
+      <c r="H131">
+        <v>9</v>
+      </c>
+      <c r="I131">
+        <v>4</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>47</v>
+      </c>
+      <c r="R131">
+        <v>53</v>
+      </c>
+      <c r="S131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>89</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>1348367</v>
+      </c>
+      <c r="G132">
+        <v>12</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>57</v>
+      </c>
+      <c r="R132">
+        <v>43</v>
+      </c>
+      <c r="S132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>90</v>
+      </c>
+      <c r="B133" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" t="s">
+        <v>41</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1348362</v>
+      </c>
+      <c r="G133">
+        <v>8</v>
+      </c>
+      <c r="H133">
+        <v>4</v>
+      </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="J133">
+        <v>5</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>55</v>
+      </c>
+      <c r="R133">
+        <v>45</v>
+      </c>
+      <c r="S133" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>90</v>
+      </c>
+      <c r="B134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>1348365</v>
+      </c>
+      <c r="G134">
+        <v>7</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>2</v>
+      </c>
+      <c r="Q134">
+        <v>52</v>
+      </c>
+      <c r="R134">
+        <v>48</v>
+      </c>
+      <c r="S134" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>90</v>
+      </c>
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1348368</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
+        <v>9</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <v>6</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>2</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>55</v>
+      </c>
+      <c r="R135">
+        <v>45</v>
+      </c>
+      <c r="S135" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>91</v>
+      </c>
+      <c r="B136" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>1348363</v>
+      </c>
+      <c r="G136">
+        <v>4</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <v>56</v>
+      </c>
+      <c r="R136">
+        <v>44</v>
+      </c>
+      <c r="S136" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>92</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" t="s">
+        <v>35</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>1348364</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
+        <v>7</v>
+      </c>
+      <c r="J137">
+        <v>3</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>3</v>
+      </c>
+      <c r="Q137">
+        <v>45</v>
+      </c>
+      <c r="R137">
+        <v>55</v>
+      </c>
+      <c r="S137" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Primera_B_2025.xlsx
+++ b/Ligas/Primera_B_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D121336-A426-4982-9AD5-75D86BC35A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A1E807-C53C-4810-B73B-8D0B631F363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="97">
   <si>
     <t>Fecha</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
+    <t>2025-07-26</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
   </si>
 </sst>
 </file>
@@ -317,7 +329,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -662,14 +673,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S137"/>
+  <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="R145" sqref="R145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8756,6 +8768,478 @@
         <v>38</v>
       </c>
     </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>93</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>1348372</v>
+      </c>
+      <c r="G138">
+        <v>5</v>
+      </c>
+      <c r="H138">
+        <v>5</v>
+      </c>
+      <c r="I138">
+        <v>4</v>
+      </c>
+      <c r="J138">
+        <v>4</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138">
+        <v>2</v>
+      </c>
+      <c r="Q138">
+        <v>54</v>
+      </c>
+      <c r="R138">
+        <v>46</v>
+      </c>
+      <c r="S138" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>94</v>
+      </c>
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>1348371</v>
+      </c>
+      <c r="G139">
+        <v>5</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
+      <c r="J139">
+        <v>4</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>57</v>
+      </c>
+      <c r="R139">
+        <v>43</v>
+      </c>
+      <c r="S139" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>94</v>
+      </c>
+      <c r="B140" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" t="s">
+        <v>31</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>1348373</v>
+      </c>
+      <c r="G140">
+        <v>5</v>
+      </c>
+      <c r="H140">
+        <v>5</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>3</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140">
+        <v>2</v>
+      </c>
+      <c r="Q140">
+        <v>51</v>
+      </c>
+      <c r="R140">
+        <v>49</v>
+      </c>
+      <c r="S140" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>94</v>
+      </c>
+      <c r="B141" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1348374</v>
+      </c>
+      <c r="G141">
+        <v>6</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>5</v>
+      </c>
+      <c r="J141">
+        <v>4</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>54</v>
+      </c>
+      <c r="R141">
+        <v>46</v>
+      </c>
+      <c r="S141" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>94</v>
+      </c>
+      <c r="B142" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1348376</v>
+      </c>
+      <c r="G142">
+        <v>4</v>
+      </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+      <c r="J142">
+        <v>5</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>49</v>
+      </c>
+      <c r="R142">
+        <v>51</v>
+      </c>
+      <c r="S142" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>95</v>
+      </c>
+      <c r="B143" t="s">
+        <v>32</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1348370</v>
+      </c>
+      <c r="G143">
+        <v>2</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>4</v>
+      </c>
+      <c r="J143">
+        <v>5</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>56</v>
+      </c>
+      <c r="R143">
+        <v>44</v>
+      </c>
+      <c r="S143" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>95</v>
+      </c>
+      <c r="B144" t="s">
+        <v>37</v>
+      </c>
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>1348375</v>
+      </c>
+      <c r="G144">
+        <v>4</v>
+      </c>
+      <c r="H144">
+        <v>6</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>5</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>56</v>
+      </c>
+      <c r="R144">
+        <v>44</v>
+      </c>
+      <c r="S144" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>96</v>
+      </c>
+      <c r="B145" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>1348369</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145">
+        <v>4</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145">
+        <v>2</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>50</v>
+      </c>
+      <c r="R145">
+        <v>50</v>
+      </c>
+      <c r="S145" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Primera_B_2025.xlsx
+++ b/Ligas/Primera_B_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S153"/>
+  <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,26 @@
           <t>Resultado</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local (%)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita (%)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>fuente_tiempos</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>estado_datos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -596,6 +616,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -663,6 +687,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -730,6 +758,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -797,6 +829,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -864,6 +900,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -931,6 +971,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -998,6 +1042,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1065,6 +1113,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1132,6 +1184,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1199,6 +1255,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1266,6 +1326,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1333,6 +1397,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1400,6 +1468,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1467,6 +1539,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1534,6 +1610,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1601,6 +1681,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1668,6 +1752,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1735,6 +1823,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1802,6 +1894,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1869,6 +1965,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1936,6 +2036,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2003,6 +2107,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2070,6 +2178,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2137,6 +2249,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2204,6 +2320,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2271,6 +2391,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2338,6 +2462,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2405,6 +2533,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2472,6 +2604,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2539,6 +2675,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2606,6 +2746,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2673,6 +2817,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2740,6 +2888,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2807,6 +2959,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2874,6 +3030,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2941,6 +3101,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3008,6 +3172,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3075,6 +3243,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3142,6 +3314,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3209,6 +3385,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3276,6 +3456,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3343,6 +3527,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3410,6 +3598,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3477,6 +3669,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3544,6 +3740,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3611,6 +3811,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3678,6 +3882,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3745,6 +3953,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3812,6 +4024,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3879,6 +4095,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3946,6 +4166,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4013,6 +4237,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4080,6 +4308,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4147,6 +4379,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4214,6 +4450,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4281,6 +4521,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4348,6 +4592,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4415,6 +4663,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4482,6 +4734,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4549,6 +4805,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4616,6 +4876,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4683,6 +4947,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4750,6 +5018,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4817,6 +5089,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4884,6 +5160,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4951,6 +5231,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5018,6 +5302,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5085,6 +5373,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5152,6 +5444,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5219,6 +5515,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5286,6 +5586,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5353,6 +5657,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5420,6 +5728,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5487,6 +5799,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5554,6 +5870,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5621,6 +5941,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5688,6 +6012,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5755,6 +6083,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5822,6 +6154,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5889,6 +6225,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5956,6 +6296,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6023,6 +6367,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6090,6 +6438,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6157,6 +6509,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6224,6 +6580,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6291,6 +6651,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6358,6 +6722,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6425,6 +6793,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6492,6 +6864,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6559,6 +6935,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6626,6 +7006,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6693,6 +7077,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6760,6 +7148,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6827,6 +7219,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6894,6 +7290,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6961,6 +7361,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7028,6 +7432,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7095,6 +7503,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7162,6 +7574,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7229,6 +7645,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7296,6 +7716,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7363,6 +7787,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7430,6 +7858,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7497,6 +7929,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7564,6 +8000,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7631,6 +8071,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7698,6 +8142,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7765,6 +8213,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7832,6 +8284,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7899,6 +8355,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7966,6 +8426,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8033,6 +8497,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8100,6 +8568,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8167,6 +8639,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8234,6 +8710,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8301,6 +8781,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8368,6 +8852,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8435,6 +8923,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8502,6 +8994,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8569,6 +9065,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8636,6 +9136,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8703,6 +9207,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8770,6 +9278,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8837,6 +9349,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8904,6 +9420,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8971,6 +9491,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9038,6 +9562,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9105,6 +9633,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9172,6 +9704,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9239,6 +9775,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9306,6 +9846,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9373,6 +9917,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9440,6 +9988,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9507,6 +10059,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9574,6 +10130,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9641,6 +10201,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9708,6 +10272,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9775,6 +10343,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9842,6 +10414,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9909,6 +10485,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9976,6 +10556,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10043,6 +10627,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10110,6 +10698,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10177,6 +10769,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10244,6 +10840,10 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10311,6 +10911,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10378,6 +10982,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10445,6 +11053,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10512,6 +11124,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10579,6 +11195,10 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10646,6 +11266,10 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10711,6 +11335,642 @@
       <c r="S153" t="inlineStr">
         <is>
           <t>L</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1348387</v>
+      </c>
+      <c r="G154" t="n">
+        <v>9</v>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>3</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>50</v>
+      </c>
+      <c r="R154" t="n">
+        <v>50</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Rangers de Talca</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Santiago Morning</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1348391</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>11</v>
+      </c>
+      <c r="I155" t="n">
+        <v>5</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>48</v>
+      </c>
+      <c r="R155" t="n">
+        <v>52</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Deportes Santa Cruz</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Universidad de Concepcion</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1348390</v>
+      </c>
+      <c r="G156" t="n">
+        <v>7</v>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>5</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>55</v>
+      </c>
+      <c r="R156" t="n">
+        <v>45</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Santiago Wanderers</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Deportes Copiapo</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1348388</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>51</v>
+      </c>
+      <c r="R157" t="n">
+        <v>49</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>San Marcos de Arica</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1348385</v>
+      </c>
+      <c r="G158" t="n">
+        <v>6</v>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4</v>
+      </c>
+      <c r="J158" t="n">
+        <v>4</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>64</v>
+      </c>
+      <c r="R158" t="n">
+        <v>36</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Cobreloa</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1348386</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2</v>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>46</v>
+      </c>
+      <c r="R159" t="n">
+        <v>54</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="W159" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Union San Felipe</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1348389</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4</v>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>45</v>
+      </c>
+      <c r="R160" t="n">
+        <v>55</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="W160" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Concepción</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Curico Unido</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1348392</v>
+      </c>
+      <c r="G161" t="n">
+        <v>7</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" t="n">
+        <v>4</v>
+      </c>
+      <c r="J161" t="n">
+        <v>5</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>2</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>55</v>
+      </c>
+      <c r="R161" t="n">
+        <v>45</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="W161" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
